--- a/tut05/output/0401EE17.xlsx
+++ b/tut05/output/0401EE17.xlsx
@@ -550,28 +550,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.877551020408164</v>
+        <v>6.88</v>
       </c>
       <c r="C6" t="n">
         <v>6.75</v>
       </c>
       <c r="D6" t="n">
-        <v>8.347826086956522</v>
+        <v>8.35</v>
       </c>
       <c r="E6" t="n">
-        <v>7.434782608695652</v>
+        <v>7.43</v>
       </c>
       <c r="F6" t="n">
-        <v>7.769230769230769</v>
+        <v>7.77</v>
       </c>
       <c r="G6" t="n">
-        <v>6.675</v>
+        <v>6.67</v>
       </c>
       <c r="H6" t="n">
-        <v>7.488372093023256</v>
+        <v>7.49</v>
       </c>
       <c r="I6" t="n">
-        <v>8.263157894736842</v>
+        <v>8.26</v>
       </c>
     </row>
     <row r="7">
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.877551020408164</v>
+        <v>6.88</v>
       </c>
       <c r="C8" t="n">
-        <v>6.817204301075269</v>
+        <v>6.82</v>
       </c>
       <c r="D8" t="n">
-        <v>7.323741007194244</v>
+        <v>7.32</v>
       </c>
       <c r="E8" t="n">
-        <v>7.351351351351352</v>
+        <v>7.35</v>
       </c>
       <c r="F8" t="n">
-        <v>7.424107142857143</v>
+        <v>7.42</v>
       </c>
       <c r="G8" t="n">
-        <v>7.310606060606061</v>
+        <v>7.31</v>
       </c>
       <c r="H8" t="n">
-        <v>7.335504885993485</v>
+        <v>7.34</v>
       </c>
       <c r="I8" t="n">
-        <v>7.43768115942029</v>
+        <v>7.44</v>
       </c>
     </row>
   </sheetData>
